--- a/xlsx/t1.xlsx
+++ b/xlsx/t1.xlsx
@@ -10,7 +10,7 @@
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="qwre" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="我" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
